--- a/Test Requirements and Data/Catch the Light Project B.O.M (Units of 100).xlsx
+++ b/Test Requirements and Data/Catch the Light Project B.O.M (Units of 100).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickl\Documents\ECE 388\Catch the light project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pimen\Documents\UMD\ECE 388\Lab Code\Catch_The_Light\Test Requirements and Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D954D72-5E3C-40BC-B269-6D64F8F04FED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A3FDF-6534-4599-BCDB-1EA190303E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91F04D41-92BE-43B5-B9A6-27DC169FA4E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91F04D41-92BE-43B5-B9A6-27DC169FA4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,46 +357,46 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,40 +725,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512452E2-98AF-4164-89CE-6A76B1B77DF4}">
   <dimension ref="H8:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
     <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="104.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="8:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -771,549 +771,550 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
+    <row r="10" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H11" s="6" t="s">
+    <row r="11" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H12" s="6" t="s">
+    <row r="12" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>50</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="4">
         <v>0.29899999999999999</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="4">
         <f t="shared" ref="K12:K19" si="0">J12*I12</f>
         <v>14.95</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="5">
         <v>13233</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H13" s="6" t="s">
+    <row r="13" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>100</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="4">
         <v>0.27500000000000002</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>27.500000000000004</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
+      <c r="L13" s="3"/>
+      <c r="M13" s="5">
         <v>5728</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H14" s="6" t="s">
+    <row r="14" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>27.200000000000003</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
+      <c r="L14" s="3"/>
+      <c r="M14" s="5">
         <v>98805</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H15" s="6" t="s">
+    <row r="15" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="4">
         <v>0.05</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
+      <c r="L15" s="3"/>
+      <c r="M15" s="5">
         <v>37000000</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H16" s="6" t="s">
+    <row r="16" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>200</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="4">
         <v>4.36E-2</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>8.7200000000000006</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="5">
         <v>62000</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H17" s="6" t="s">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="4">
         <v>5.8450000000000002E-2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>75.984999999999999</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="5">
         <v>275000</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="7" t="s">
         <v>33</v>
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H18" s="6" t="s">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="4">
         <v>0.18790000000000001</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>37.580000000000005</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="5">
         <v>275000</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H19" s="6" t="s">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>100</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="4">
         <v>0.36270000000000002</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>36.270000000000003</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="5">
         <v>127000</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="7" t="s">
         <v>39</v>
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H20" s="6" t="s">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="4">
         <v>1.25</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="4">
         <v>125</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
+      <c r="L20" s="3"/>
+      <c r="M20" s="5">
         <v>16189</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="Q20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H21" s="6" t="s">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="9">
         <v>0</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="9">
         <v>0</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H22" s="6" t="s">
+    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="4">
         <f>J22*I22</f>
         <v>20.400000000000002</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
+      <c r="L22" s="3"/>
+      <c r="M22" s="5">
         <v>1700000</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="7" t="s">
         <v>48</v>
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H23" s="6" t="s">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="4">
         <v>0.45</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="4">
         <f>J23*I23</f>
         <v>45</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
+      <c r="L23" s="3"/>
+      <c r="M23" s="5">
         <v>151582</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="7" t="s">
         <v>52</v>
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H24" s="6" t="s">
+    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <f>J24*I24</f>
         <v>57.999999999999993</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
+      <c r="L24" s="3"/>
+      <c r="M24" s="5">
         <v>214640</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="7" t="s">
         <v>56</v>
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H25" s="6" t="s">
+    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="3">
         <v>10</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="4">
         <v>0.37</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="4">
         <f>J25*I25</f>
         <v>3.7</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
+      <c r="L25" s="3"/>
+      <c r="M25" s="5">
         <v>2600</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="Q25" s="7" t="s">
         <v>60</v>
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H27" s="6" t="s">
+    <row r="27" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="7">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="4">
         <f>SUM(K12:K26)</f>
         <v>490.30500000000001</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N27" s="17"/>
       <c r="O27" s="18"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H28" s="14" t="s">
+    <row r="28" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="15">
-        <v>4.9000000000000004</v>
+      <c r="K28" s="12">
+        <f>K27/100</f>
+        <v>4.9030500000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Test Requirements and Data/Catch the Light Project B.O.M (Units of 100).xlsx
+++ b/Test Requirements and Data/Catch the Light Project B.O.M (Units of 100).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pimen\Documents\UMD\ECE 388\Lab Code\Catch_The_Light\Test Requirements and Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9A3FDF-6534-4599-BCDB-1EA190303E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8766686-E654-4147-85BB-2132FE935DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91F04D41-92BE-43B5-B9A6-27DC169FA4E9}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{91F04D41-92BE-43B5-B9A6-27DC169FA4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,25 +725,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512452E2-98AF-4164-89CE-6A76B1B77DF4}">
   <dimension ref="H8:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.26171875" customWidth="1"/>
+    <col min="9" max="9" width="15.578125" customWidth="1"/>
+    <col min="10" max="10" width="11.41796875" customWidth="1"/>
+    <col min="11" max="11" width="10.578125" customWidth="1"/>
+    <col min="12" max="12" width="14.68359375" customWidth="1"/>
+    <col min="13" max="13" width="14.26171875" customWidth="1"/>
+    <col min="14" max="14" width="21.41796875" customWidth="1"/>
     <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="17" max="17" width="112.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.26171875" customWidth="1"/>
+    <col min="17" max="17" width="112.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -758,7 +758,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -771,7 +771,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H10" s="2"/>
       <c r="I10" s="14" t="s">
         <v>64</v>
@@ -786,7 +786,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H14" s="3" t="s">
         <v>20</v>
       </c>
@@ -917,7 +917,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -949,7 +949,7 @@
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H16" s="3" t="s">
         <v>65</v>
       </c>
@@ -983,7 +983,7 @@
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="3" t="s">
         <v>44</v>
       </c>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H25" s="3" t="s">
         <v>57</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1288,7 +1288,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H27" s="3" t="s">
         <v>61</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H28" s="11" t="s">
         <v>66</v>
       </c>
